--- a/Etiquette/SRO-21_011_069-DETAIL-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-21_011_069-DETAIL-ETIQUETTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="399">
   <si>
     <t>CODE POINT TECHNIQUE</t>
   </si>
@@ -796,12 +796,12 @@
     <t>CDI-21-011-069-2016-36 FO</t>
   </si>
   <si>
+    <t>SRO-21-011-069</t>
+  </si>
+  <si>
     <t>CDI-21-011-069-2039-288 FO</t>
   </si>
   <si>
-    <t>SRO-21-011-069</t>
-  </si>
-  <si>
     <t>None-08/2021</t>
   </si>
   <si>
@@ -928,6 +928,9 @@
     <t>21001/68</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>PBO-21-011-069-3029</t>
   </si>
   <si>
@@ -935,9 +938,6 @@
   </si>
   <si>
     <t>PBO-21-011-069-3035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>PBO-21-011-069-3034</t>
@@ -3805,7 +3805,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="B205" s="2">
         <v>2</v>
@@ -8111,10 +8111,10 @@
         <v>9</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="G205" s="2"/>
     </row>
@@ -8132,7 +8132,7 @@
         <v>9</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>24</v>
@@ -8153,7 +8153,7 @@
         <v>9</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>126</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="B208" s="2">
         <v>2</v>
@@ -8174,16 +8174,16 @@
         <v>9</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B209" s="2">
         <v>2</v>
@@ -8195,16 +8195,16 @@
         <v>9</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="G209" s="2"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B210" s="2">
         <v>2</v>
@@ -8216,16 +8216,16 @@
         <v>9</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B211" s="2">
         <v>2</v>
@@ -8237,7 +8237,7 @@
         <v>9</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>24</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B212" s="2">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>9</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>24</v>
@@ -8279,7 +8279,7 @@
         <v>9</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>24</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B214" s="2">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>9</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>24</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B215" s="2">
         <v>2</v>
@@ -8321,7 +8321,7 @@
         <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>24</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B216" s="2">
         <v>2</v>
@@ -8342,7 +8342,7 @@
         <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>24</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B217" s="2">
         <v>2</v>
@@ -8363,7 +8363,7 @@
         <v>9</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>24</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B218" s="2">
         <v>2</v>
@@ -8384,7 +8384,7 @@
         <v>9</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>24</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B219" s="2">
         <v>2</v>
@@ -8405,7 +8405,7 @@
         <v>9</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>24</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B220" s="2">
         <v>2</v>
@@ -8426,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>24</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B221" s="2">
         <v>2</v>
@@ -8447,7 +8447,7 @@
         <v>9</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>24</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B222" s="2">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>9</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>24</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B223" s="2">
         <v>2</v>
@@ -8489,7 +8489,7 @@
         <v>9</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>24</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B224" s="2">
         <v>2</v>
@@ -8510,7 +8510,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>24</v>
@@ -8531,7 +8531,7 @@
         <v>9</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>24</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B226" s="2">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>9</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>24</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B227" s="2">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>9</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>24</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B228" s="2">
         <v>2</v>
@@ -8594,16 +8594,16 @@
         <v>9</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B229" s="2">
         <v>2</v>
@@ -8615,7 +8615,7 @@
         <v>9</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>24</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="B230" s="2">
         <v>2</v>
@@ -8636,16 +8636,16 @@
         <v>9</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B231" s="2">
         <v>2</v>
@@ -8660,13 +8660,13 @@
         <v>284</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G231" s="2"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B232" s="2">
         <v>2</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="B233" s="2">
         <v>2</v>
@@ -8702,13 +8702,13 @@
         <v>284</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="B234" s="2">
         <v>2</v>
@@ -8723,7 +8723,7 @@
         <v>284</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G234" s="2"/>
     </row>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="2" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="B304" s="2">
         <v>2</v>
@@ -10193,7 +10193,7 @@
         <v>289</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="G304" s="2"/>
     </row>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="2" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="B306" s="2">
         <v>2</v>
@@ -10235,13 +10235,13 @@
         <v>289</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G306" s="2"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B307" s="2">
         <v>2</v>
@@ -10256,13 +10256,13 @@
         <v>289</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G307" s="2"/>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="2" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="B308" s="2">
         <v>2</v>
@@ -10274,7 +10274,7 @@
         <v>9</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>24</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="2" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B309" s="2">
         <v>2</v>
@@ -10295,7 +10295,7 @@
         <v>9</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>24</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="2" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="B310" s="2">
         <v>2</v>
@@ -10316,16 +10316,16 @@
         <v>9</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G310" s="2"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B311" s="2">
         <v>2</v>
@@ -10337,16 +10337,16 @@
         <v>9</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G311" s="2"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="2" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B312" s="2">
         <v>2</v>
@@ -10358,7 +10358,7 @@
         <v>9</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>24</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="2" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="B313" s="2">
         <v>2</v>
@@ -10379,16 +10379,16 @@
         <v>9</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G313" s="2"/>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="2" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="B314" s="2">
         <v>2</v>
@@ -10400,16 +10400,16 @@
         <v>9</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G314" s="2"/>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B315" s="2">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>9</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>24</v>
@@ -10430,7 +10430,7 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B316" s="2">
         <v>2</v>
@@ -10442,7 +10442,7 @@
         <v>9</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>24</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B317" s="2">
         <v>2</v>
@@ -10463,7 +10463,7 @@
         <v>9</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>24</v>
@@ -10484,7 +10484,7 @@
         <v>9</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>24</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B319" s="2">
         <v>2</v>
@@ -10505,7 +10505,7 @@
         <v>9</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>24</v>
@@ -10526,7 +10526,7 @@
         <v>9</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>24</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B321" s="2">
         <v>2</v>
@@ -10547,7 +10547,7 @@
         <v>9</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>24</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="2" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="B322" s="2">
         <v>2</v>
@@ -10568,7 +10568,7 @@
         <v>9</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>24</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="2" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B323" s="2">
         <v>2</v>
@@ -10589,7 +10589,7 @@
         <v>9</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>24</v>
@@ -10598,7 +10598,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B324" s="2">
         <v>2</v>
@@ -10610,7 +10610,7 @@
         <v>9</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>24</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="2" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B325" s="2">
         <v>2</v>
@@ -10631,7 +10631,7 @@
         <v>9</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>24</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="2" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="B326" s="2">
         <v>2</v>
@@ -10652,7 +10652,7 @@
         <v>9</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>24</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B327" s="2">
         <v>2</v>
@@ -10673,7 +10673,7 @@
         <v>9</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>24</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="2" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="B328" s="2">
         <v>2</v>
@@ -10694,16 +10694,16 @@
         <v>9</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G328" s="2"/>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="2" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B329" s="2">
         <v>2</v>
@@ -10715,16 +10715,16 @@
         <v>9</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G329" s="2"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="2" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B330" s="2">
         <v>2</v>
@@ -10736,7 +10736,7 @@
         <v>9</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>24</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="2" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="B331" s="2">
         <v>2</v>
@@ -10757,16 +10757,16 @@
         <v>9</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G331" s="2"/>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="2" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="B332" s="2">
         <v>2</v>
@@ -10778,16 +10778,16 @@
         <v>9</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G332" s="2"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B333" s="2">
         <v>2</v>
@@ -10799,7 +10799,7 @@
         <v>9</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>24</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="2" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B334" s="2">
         <v>2</v>
@@ -10820,7 +10820,7 @@
         <v>9</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>24</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="2" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="B335" s="2">
         <v>2</v>
@@ -10841,7 +10841,7 @@
         <v>9</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>24</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="2" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B336" s="2">
         <v>2</v>
@@ -10862,7 +10862,7 @@
         <v>9</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>24</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B337" s="2">
         <v>2</v>
@@ -10883,7 +10883,7 @@
         <v>9</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>24</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B338" s="2">
         <v>2</v>
@@ -10904,7 +10904,7 @@
         <v>9</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>24</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B339" s="2">
         <v>2</v>
@@ -10925,7 +10925,7 @@
         <v>9</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>24</v>
@@ -10934,7 +10934,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="2" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="B340" s="2">
         <v>2</v>
@@ -10946,33 +10946,96 @@
         <v>9</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G340" s="2"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B341" s="2">
-        <v>2</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E341" s="2" t="s">
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F341" s="2" t="s">
+      <c r="F343" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G341" s="2"/>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G344" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11012,7 +11075,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -11024,10 +11087,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -11045,7 +11108,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -11066,7 +11129,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -11087,10 +11150,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -11174,7 +11237,7 @@
         <v>310</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -11321,7 +11384,7 @@
         <v>318</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -11426,7 +11489,7 @@
         <v>323</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -11447,7 +11510,7 @@
         <v>324</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -11594,7 +11657,7 @@
         <v>331</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G29" s="2"/>
     </row>
